--- a/Data/Transitions/18911923Translation.xlsx
+++ b/Data/Transitions/18911923Translation.xlsx
@@ -61,7 +61,7 @@
     <t>{13.0: 0.7259633800658852}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690755208333334}</t>
+    <t>{14.0: 0.9691257718557036}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -127,7 +127,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.4741146168705731}</t>
+    <t>{834.0: 0.47414514778800954}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -139,7 +139,7 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
+    <t>{311.0: 0.023413950227830355}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -163,13 +163,13 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286}</t>
+    <t>{764.0: 0.1490527567751253}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.39748493443127403}</t>
+    <t>{86.0: 0.39561049492763845}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -247,10 +247,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.37660330706227785, 86.0: 0.167627732332037}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9912172052696768, 144.0: 0.008141609952717104}</t>
+    <t>{543.0: 0.37660330706227785, 86.0: 0.16763897270837524}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9912221471978393, 144.0: 0.008141467939881864}</t>
   </si>
   <si>
     <t>{109.0: 1.0}</t>
@@ -262,25 +262,25 @@
     <t>{139.0: 0.9274604952096553}</t>
   </si>
   <si>
-    <t>{141.0: 0.03256451940662467}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.678207582535171, 762.0: 0.7010364992187316}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.731822893528802}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9569793200618738}</t>
+    <t>{141.0: 0.0324770735167452}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.6782688852956832, 762.0: 0.7010364992187316}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.7317831753554502}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9569578564997833}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
-  </si>
-  <si>
-    <t>{147.0: 0.9168485213334336, 764.0: 0.02364448224537529}</t>
+    <t>{146.0: 0.7349950571953114}</t>
+  </si>
+  <si>
+    <t>{147.0: 0.9109445519019987, 764.0: 0.023617364709880215}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -307,7 +307,7 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922}</t>
+    <t>{165.0: 0.9614104302798668}</t>
   </si>
   <si>
     <t>{166.0: 1.0}</t>
@@ -334,7 +334,7 @@
     <t>{173.0: 0.8485467756584922}</t>
   </si>
   <si>
-    <t>{174.0: 1.0, 534.0: 0.04851715745215711}</t>
+    <t>{174.0: 1.0, 534.0: 0.046148460782555245}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -346,13 +346,13 @@
     <t>{562.0: 0.3589476967869398}</t>
   </si>
   <si>
-    <t>{178.0: 1.0, 14.0: 0.030924479166666668}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.031122687395578948}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.925063318636872}</t>
+    <t>{178.0: 1.0, 14.0: 0.03087422814429639}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.028080106910640466}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9351732379460341}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -361,7 +361,7 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.047477041276882896}</t>
+    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.04736108044332734}</t>
   </si>
   <si>
     <t>{185.0: 0.9243525670149931}</t>
@@ -379,7 +379,7 @@
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -406,7 +406,7 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.2476711361212631}</t>
+    <t>{897.0: 0.24715558615193015}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
@@ -475,13 +475,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.7174180832717418}</t>
+    <t>{246.0: 0.7176267848350566}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -490,13 +493,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.8066747612911751}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.5544624033731553}</t>
+    <t>{249.0: 0.8066389006587737}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.568021803315921}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -535,7 +538,7 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8278569454040995}</t>
+    <t>{264.0: 0.8296382359733518}</t>
   </si>
   <si>
     <t>{265.0: 0.6807426881367072}</t>
@@ -562,10 +565,10 @@
     <t>{686.0: 0.39664942103966494}</t>
   </si>
   <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6992746637967333, 180.0: 0.013996985868565445}</t>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6992746637967333, 180.0: 0.02295240336741064}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -589,7 +592,7 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.15746955604131482}</t>
+    <t>{909.0: 0.1599143866049324}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -598,7 +601,7 @@
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{289.0: 0.8378034656314187, 730.0: 0.2998825373404282}</t>
+    <t>{289.0: 0.8379762146830797, 730.0: 0.30062820449168093}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
@@ -625,7 +628,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.7768290641218818}</t>
+    <t>{298.0: 0.7768166089965398}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -649,7 +652,7 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.26817710647119797, 909.0: 0.40590425741616165}</t>
+    <t>{142.0: 0.26821682464454977, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -664,7 +667,7 @@
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.9765860497721697, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -688,9 +691,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -700,7 +700,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -712,7 +712,7 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.942213972290207}</t>
+    <t>{404.0: 0.9421964542058993}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -787,10 +787,10 @@
     <t>{432.0: 1.0}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -820,7 +820,7 @@
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 595.0: 0.06819795248077552}</t>
+    <t>{476.0: 1.0, 595.0: 0.0677851319451776}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -850,7 +850,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.6817752596789424, 837.0: 0.009122201354230282}</t>
+    <t>{486.0: 0.6817752596789424, 837.0: 0.00936130623498098}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -871,19 +871,19 @@
     <t>{492.0: 1.0}</t>
   </si>
   <si>
-    <t>{493.0: 1.0, 108.0: 0.008782794730323161, 144.0: 7.213967696375486e-05}</t>
+    <t>{493.0: 1.0, 108.0: 0.008777852802160702, 144.0: 7.209746813246882e-05}</t>
   </si>
   <si>
     <t>{494.0: 0.9441460794844253}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.967200526546731}</t>
+    <t>{497.0: 0.9670759235809062}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -892,13 +892,13 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.21443956244325174, 180.0: 0.004292315567223292}</t>
+    <t>{277.0: 0.21357773180695558, 180.0: 0.007010295817259658}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.1870200326304875}</t>
+    <t>{534.0: 0.17598260269811342}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -931,13 +931,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.4934337569518343}</t>
+    <t>{534.0: 0.5209020292831862}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.8551437537104571, 837.0: 0.03639104034620442}</t>
+    <t>{604.0: 0.8534475447375116, 837.0: 0.03727082234591006}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -946,7 +946,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0}</t>
@@ -1009,10 +1009,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.8768705547652916}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715}</t>
+    <t>{580.0: 0.8765544780376497}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1024,7 +1024,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 1.0, 434.0: 0.019332161687170474}</t>
+    <t>{585.0: 1.0, 434.0: 0.017354719957927953}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1045,13 +1045,13 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.7044783923693807}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.6549268314805103}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{593.0: 0.7047938629038607}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.6553396520161082}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1060,7 +1060,7 @@
     <t>{598.0: 1.0}</t>
   </si>
   <si>
-    <t>{599.0: 0.9974362261248558}</t>
+    <t>{599.0: 0.9973621735689792}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1075,7 +1075,7 @@
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1105,7 +1105,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.8586594139322689}</t>
+    <t>{615.0: 0.8586346086346086}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1114,7 +1114,7 @@
     <t>{617.0: 0.8099047619047619}</t>
   </si>
   <si>
-    <t>{246.0: 0.28258191672825816}</t>
+    <t>{246.0: 0.2823732151649434}</t>
   </si>
   <si>
     <t>{619.0: 1.0}</t>
@@ -1156,7 +1156,7 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.44553759662684467}</t>
+    <t>{251.0: 0.43197819668407905}</t>
   </si>
   <si>
     <t>{226.0: 0.06961119065976429, 729.0: 0.053167325649869604}</t>
@@ -1186,7 +1186,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.023236260796453412, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.02323803699740101, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1198,7 +1198,7 @@
     <t>{686.0: 0.6033505789603351}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 534.0: 0.04730317529360591}</t>
+    <t>{687.0: 1.0, 534.0: 0.04461080914777971}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1219,7 +1219,7 @@
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.434887333236689, 165.0: 0.03846626520830773, 433.0: 0.008276358402302987}</t>
+    <t>{86.0: 0.4367505323639863, 165.0: 0.03858956972013315, 433.0: 0.00832729905865315}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1228,7 +1228,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9767637392035465}</t>
+    <t>{698.0: 0.976761963002599}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1258,16 +1258,16 @@
     <t>{729.0: 0.8205940003572835}</t>
   </si>
   <si>
-    <t>{730.0: 0.7001174626595719, 289.0: 0.16219653436858122}</t>
-  </si>
-  <si>
-    <t>{731.0: 0.5093056179396515}</t>
+    <t>{730.0: 0.6993717955083192, 289.0: 0.16202378531692033}</t>
+  </si>
+  <si>
+    <t>{731.0: 0.5242772338343619}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 1.0, 147.0: 0.08315147866656633}</t>
+    <t>{733.0: 1.0, 147.0: 0.08905544809800128}</t>
   </si>
   <si>
     <t>{888.0: 0.2845953002610966}</t>
@@ -1291,7 +1291,7 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 1.0, 90.0: 0.03364256175254275, 789.0: 0.001348799568384138}</t>
+    <t>{741.0: 1.0, 90.0: 0.03364256175254275, 789.0: 0.0013518385003604902}</t>
   </si>
   <si>
     <t>{758.0: 0.11983160427003459}</t>
@@ -1300,7 +1300,7 @@
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.24067164179104478}</t>
+    <t>{757.0: 0.2434881087202718}</t>
   </si>
   <si>
     <t>{746.0: 1.0, 691.0: 0.014129443938012761}</t>
@@ -1318,7 +1318,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.1231294452347084}</t>
+    <t>{580.0: 0.12344552196235026}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1333,7 +1333,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.7593283582089553}</t>
+    <t>{757.0: 0.7565118912797282}</t>
   </si>
   <si>
     <t>{758.0: 0.7042549992482333}</t>
@@ -1348,13 +1348,13 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.059558272455346666, 762.0: 0.0615630433760985}</t>
+    <t>{141.0: 0.059563655890458374, 762.0: 0.0615630433760985}</t>
   </si>
   <si>
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1420,13 +1420,13 @@
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{277.0: 0.05003589790342541, 180.0: 0.001001540299018768}</t>
+    <t>{277.0: 0.05089772853972156, 180.0: 0.0016706242288055213}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9986512004316158}</t>
+    <t>{789.0: 0.9986481614996395}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1438,7 +1438,7 @@
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
+    <t>{834.0: 0.5258548522119905}</t>
   </si>
   <si>
     <t>{835.0: 1.0}</t>
@@ -1447,7 +1447,7 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9483223333356342, 486.0: 0.3182247403210576}</t>
+    <t>{837.0: 0.9469677938066939, 486.0: 0.3182247403210576}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 19.0: 0.13507462686567165}</t>
@@ -1465,7 +1465,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.17214305459590057}</t>
+    <t>{264.0: 0.17036176402664815}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1483,7 +1483,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.0245231522327416, 277.0: 0.03624987585658953}</t>
+    <t>{180.0: 0.0051133317298495155, 277.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1501,7 +1501,7 @@
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
+    <t>{146.0: 0.2650049428046886}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
@@ -1558,10 +1558,10 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.02499643873816452}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.7102772466218353}</t>
+    <t>{896.0: 1.0, 897.0: 0.024944406380148505}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7110300057167102}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1570,10 +1570,10 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.044733262807919, 930.0: 0.08605117053256657, 404.0: 0.009275575382602387}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.43662618654252366}</t>
+    <t>{782.0: 0.044733262807919, 930.0: 0.08512422334873498, 404.0: 0.009293093466910127}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.43416282576980525}</t>
   </si>
   <si>
     <t>{910.0: 0.8165218347816522}</t>
@@ -1591,7 +1591,7 @@
     <t>{915.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.22372587767191515}</t>
+    <t>{534.0: 0.21235609808836542}</t>
   </si>
   <si>
     <t>{917.0: 0.84180271253553}</t>
@@ -1600,7 +1600,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182}</t>
+    <t>{298.0: 0.2231833910034602}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1618,7 +1618,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.22966962560285759, 762.0: 0.2374004574051698}</t>
+    <t>{141.0: 0.22969038529711314, 762.0: 0.2374004574051698}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1630,7 +1630,7 @@
     <t>{929.0: 1.0}</t>
   </si>
   <si>
-    <t>{930.0: 0.8441091116198934}</t>
+    <t>{930.0: 0.8350163292786408}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1651,16 +1651,16 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24804456635373645}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.1834781652183478, 497.0: 0.03279947345326898, 731.0: 0.08397950602729068}</t>
+    <t>{593.0: 0.24784505665281187}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.1834781652183478, 497.0: 0.03292407641909376, 731.0: 0.06900789013258028}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
   </si>
   <si>
-    <t>{785.0: 0.13213207501312954, 206.0: 0.1472611464968153}</t>
+    <t>{785.0: 0.1284154307396763, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1702,16 +1702,16 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.005706963499308707, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
+    <t>{989.0: 1.0, 249.0: 0.005742824131710109, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
   </si>
   <si>
     <t>{410.0: 0.2834354798085803, 729.0: 0.12623867399284688}</t>
   </si>
   <si>
-    <t>{34.0: 0.41697971450037563, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 0.41697971450037563, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{999.0: 1.0}</t>
@@ -1762,7 +1762,7 @@
     <t>{543.0: 0.6694870438921205, 86.0: 0.33051295610787945}</t>
   </si>
   <si>
-    <t>{108.0: 0.9879188511511285, 144.0: 0.012081148848871666}</t>
+    <t>{108.0: 0.9879188511511283, 144.0: 0.012081148848871666}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1771,7 +1771,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.942098860000901, 762.0: 0.057901139999098836}</t>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.057816231805686964}</t>
   </si>
   <si>
     <t>{142.0: 1.0}</t>
@@ -1783,7 +1783,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9583988028432472, 764.0: 0.04160119715675272}</t>
+    <t>{147.0: 0.9583988028432471, 764.0: 0.041601197156752714}</t>
   </si>
   <si>
     <t>{165.0: 1.0}</t>
@@ -1795,7 +1795,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.5269650010097836, 534.0: 0.47303499899021645}</t>
+    <t>{174.0: 0.529134601041196, 534.0: 0.47086539895880397}</t>
   </si>
   <si>
     <t>{562.0: 1.0}</t>
@@ -1810,7 +1810,7 @@
     <t>{180.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6302430932176811, 171.0: 0.15866130315356802, 593.0: 0.21109560362875093}</t>
+    <t>{184.0: 0.629983382178623, 171.0: 0.15877360106160043, 593.0: 0.21124301675977655}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -1822,7 +1822,7 @@
     <t>{206.0: 0.8527388535031846, 785.0: 0.1472611464968153}</t>
   </si>
   <si>
-    <t>{212.0: 0.48788501026694037, 681.0: 0.5121149897330596}</t>
+    <t>{212.0: 0.4878850102669402, 681.0: 0.5121149897330596}</t>
   </si>
   <si>
     <t>{897.0: 1.0}</t>
@@ -1849,7 +1849,7 @@
     <t>{251.0: 1.0}</t>
   </si>
   <si>
-    <t>{255.0: 0.8887904297740361, 973.0: 0.10014817456462068, 494.0: 0.011061395661342984}</t>
+    <t>{255.0: 0.8887904297740361, 973.0: 0.1001735060050665, 494.0: 0.011036064220897158}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -1867,7 +1867,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434101, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1876,7 +1876,7 @@
     <t>{289.0: 0.6822884034348525, 730.0: 0.3177115965651475}</t>
   </si>
   <si>
-    <t>{292.0: 0.7970762269404803, 139.0: 0.20292377305951967}</t>
+    <t>{292.0: 0.7970762269404804, 139.0: 0.20292377305951967}</t>
   </si>
   <si>
     <t>{298.0: 1.0}</t>
@@ -1888,7 +1888,7 @@
     <t>{309.0: 0.9590241591662719, 204.0: 0.04097584083372809}</t>
   </si>
   <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823581, 917.0: 0.018264222417641886}</t>
@@ -1912,7 +1912,7 @@
     <t>{434.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.8458036984352775, 595.0: 0.15419630156472267}</t>
+    <t>{476.0: 0.8459132906894102, 595.0: 0.15408670931058996}</t>
   </si>
   <si>
     <t>{486.0: 0.8813719916619289, 837.0: 0.1186280083380709}</t>
@@ -1933,16 +1933,19 @@
     <t>{497.0: 1.0}</t>
   </si>
   <si>
+    <t>{277.0: 0.96375012414341, 180.0: 0.03624987585658953}</t>
+  </si>
+  <si>
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38879551820728286, 702.0: 0.6112044817927171}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124715, 837.0: 0.18177668218752852}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885222, 404.0: 0.16654163540885222, 930.0: 0.5001250312578145}</t>
+    <t>{249.0: 0.3887955182072831, 702.0: 0.6112044817927171}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664718, 837.0: 0.18169373973352793}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885225, 404.0: 0.16654163540885225, 930.0: 0.5001250312578145}</t>
   </si>
   <si>
     <t>{542.0: 1.0}</t>
@@ -1951,7 +1954,7 @@
     <t>{543.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587966, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267295, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -1975,10 +1978,10 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7620095020848972, 837.0: 0.169288207838767, 922.0: 0.06870229007633588}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.7626932134522454, 837.0: 0.1693456214992105, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -1993,9 +1996,6 @@
     <t>{629.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542197, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
     <t>{226.0: 0.5, 729.0: 0.5}</t>
   </si>
   <si>
@@ -2008,13 +2008,13 @@
     <t>{615.0: 0.5922794117647059, 698.0: 0.11176470588235297, 751.0: 0.2959558823529412}</t>
   </si>
   <si>
-    <t>{687.0: 0.7078576225654801, 534.0: 0.2921423774345197}</t>
+    <t>{687.0: 0.7092245989304813, 534.0: 0.29077540106951866}</t>
   </si>
   <si>
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.948814149805708, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
+    <t>{86.0: 0.9488141498057081, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2026,7 +2026,7 @@
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624017}</t>
+    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624015}</t>
   </si>
   <si>
     <t>{733.0: 0.9015677890611083, 147.0: 0.09843221093889182}</t>
@@ -2044,16 +2044,16 @@
     <t>{757.0: 1.0}</t>
   </si>
   <si>
-    <t>{746.0: 0.989985462768535, 691.0: 0.01001453723146503}</t>
+    <t>{746.0: 0.9899854627685348, 691.0: 0.01001453723146503}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787177, 917.0: 0.07999122892128212}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.942098860000901, 762.0: 0.057901139999098815}</t>
+    <t>{754.0: 0.8492529563266304, 917.0: 0.15074704367336975}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9421837681943134, 762.0: 0.05781623180568697}</t>
   </si>
   <si>
     <t>{780.0: 1.0}</t>
@@ -2068,13 +2068,13 @@
     <t>{789.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9689657749414813, 486.0: 0.03103422505851863}</t>
+    <t>{837.0: 0.9689657749414812, 486.0: 0.03103422505851863}</t>
   </si>
   <si>
     <t>{838.0: 0.9103516592372461, 19.0: 0.08964834076275384}</t>
   </si>
   <si>
-    <t>{180.0: 0.5597104945717732, 277.0: 0.44028950542822676}</t>
+    <t>{180.0: 0.1391509433962264, 277.0: 0.8608490566037734}</t>
   </si>
   <si>
     <t>{854.0: 0.8732737611697807, 976.0: 0.12672623883021933}</t>
@@ -2086,7 +2086,7 @@
     <t>{896.0: 0.6231633535004322, 897.0: 0.37683664649956783}</t>
   </si>
   <si>
-    <t>{782.0: 0.12079340900474374, 930.0: 0.8435134338270449, 404.0: 0.0356931571682114}</t>
+    <t>{782.0: 0.12082666428771945, 930.0: 0.8437456590632297, 404.0: 0.03542767664905069}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -2098,34 +2098,34 @@
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009012, 762.0: 0.05790113999909883}</t>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.05781623180568698}</t>
   </si>
   <si>
     <t>{930.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.388360061867428, 702.0: 0.611639938132572}</t>
+    <t>{249.0: 0.3883600618674283, 702.0: 0.611639938132572}</t>
   </si>
   <si>
     <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436214, 731.0: 0.3434073281626103}</t>
   </si>
   <si>
-    <t>{785.0: 0.5122362869198313, 206.0: 0.4877637130801688}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.9005355776587602, 494.0: 0.09946442234123949}</t>
+    <t>{785.0: 0.4978279756733276, 206.0: 0.5021720243266724}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786259, 494.0: 0.09923664122137406}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.4045185583647122}</t>
+    <t>{981.0: 0.7119877441593259, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898866, 249.0: 0.007603186097031137, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898876, 599.0: 0.007022471910112359}</t>
+    <t>{990.0: 0.9929775280898875, 599.0: 0.007022471910112359}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372655, 729.0: 0.30492073296273414}</t>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -4180,29 +4180,29 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>607</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>156</v>
+        <v>607</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4213,51 +4213,51 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>608</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>610</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4279,40 +4279,40 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>611</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>612</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4378,51 +4378,51 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>613</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>614</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4466,51 +4466,51 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>615</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>184</v>
+        <v>617</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4576,29 +4576,29 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>618</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>618</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4609,29 +4609,29 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>619</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>195</v>
+        <v>619</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4642,51 +4642,51 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>620</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>198</v>
+        <v>620</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>578</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>578</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4708,29 +4708,29 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>621</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>621</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4796,29 +4796,29 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>622</v>
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>622</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4829,51 +4829,51 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>623</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>217</v>
+        <v>625</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -5693,7 +5693,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5715,7 +5715,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5759,7 +5759,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5836,7 +5836,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5858,7 +5858,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5891,7 +5891,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5913,7 +5913,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5924,7 +5924,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6012,7 +6012,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6023,7 +6023,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6122,7 +6122,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6133,7 +6133,7 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6155,7 +6155,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6177,7 +6177,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6254,7 +6254,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6309,7 +6309,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6353,7 +6353,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6364,7 +6364,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6474,7 +6474,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6496,7 +6496,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6529,7 +6529,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6628,7 +6628,7 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6639,7 +6639,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6650,7 +6650,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -7167,7 +7167,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7255,7 +7255,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7321,7 +7321,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -8212,7 +8212,7 @@
         <v>521</v>
       </c>
       <c r="C520" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -8256,7 +8256,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8476,7 +8476,7 @@
         <v>545</v>
       </c>
       <c r="C544" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="545" spans="1:3">
